--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\Raw_ET7.2_Test_5\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-BattleSystem\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4DCDEC-919D-4C46-8221-AA9F3F6758DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73EF1CD-137E-49CD-9A4E-2806DDBFC0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1932" yWindow="1500" windowWidth="17280" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CastProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,34 @@
   </si>
   <si>
     <t>NoticeClientType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端行为树名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientTreeNames</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端表现层行为树名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewTreeNames</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -443,43 +471,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:I9"/>
+  <dimension ref="C2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -487,16 +535,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -504,49 +558,55 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="4"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-BattleSystem\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73EF1CD-137E-49CD-9A4E-2806DDBFC0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513BD636-2E21-4463-BBDF-C88E94983109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1932" yWindow="1500" windowWidth="17280" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -28,13 +28,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>ActionIds</t>
-  </si>
-  <si>
-    <t>拥有的行为的Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -67,23 +60,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端行为树名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientTreeNames</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端表现层行为树名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViewTreeNames</t>
+    <t>服务端行为Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeverActionIds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端行为Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientActionIds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端表现层行为Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewActionIds</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,6 +164,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,14 +474,15 @@
   <dimension ref="C2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D2" sqref="D2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="25" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
@@ -495,13 +496,13 @@
   <sheetData>
     <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.3">
@@ -509,19 +510,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -532,19 +533,19 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -555,19 +556,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -583,7 +584,7 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolSoft\U3D\Project\ETs\ET-BattleSystem\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513BD636-2E21-4463-BBDF-C88E94983109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DC119F-DCAF-444A-8329-15377E4EAA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1932" yWindow="1500" windowWidth="17280" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -28,10 +28,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -52,35 +48,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端行为Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeverActionIds</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端行为Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientActionIds</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端表现层行为Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViewActionIds</t>
+    <t>Actions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为树名字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,14 +94,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -153,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,7 +131,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:K9"/>
+  <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -494,69 +461,46 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -564,49 +508,28 @@
       <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="7" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I9" s="4"/>
     </row>
   </sheetData>
